--- a/Cook_county.xlsx
+++ b/Cook_county.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Order No</t>
   </si>
@@ -43,35 +43,25 @@
     <t>County Name</t>
   </si>
   <si>
-    <t>13-26-109-007-0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3087 N Haussen Ct 
-</t>
-  </si>
-  <si>
-    <t>Robert L Jacob</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>IL-60618</t>
+    <t>GTD</t>
+  </si>
+  <si>
+    <t>Second Name</t>
   </si>
   <si>
     <t>Cook</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>JACKSON KELLYE</t>
-  </si>
-  <si>
-    <t>GTD</t>
+    <t>IL-60558</t>
+  </si>
+  <si>
+    <t>5412 Commonwealth Ave</t>
+  </si>
+  <si>
+    <t>Western Springs</t>
+  </si>
+  <si>
+    <t>Kathleen S Pipal</t>
   </si>
 </sst>
 </file>
@@ -194,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -253,6 +243,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,11 +572,12 @@
     <col min="6" max="6" width="30.1796875" style="5" customWidth="1"/>
     <col min="7" max="7" width="32.6328125" style="5" customWidth="1"/>
     <col min="8" max="8" width="24.36328125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="5"/>
+    <col min="9" max="9" width="13.26953125" style="5" customWidth="1"/>
+    <col min="10" max="14" width="8.7265625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -603,34 +600,36 @@
         <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
-        <v>1192237</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>1163340</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" s="16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="6"/>
@@ -638,8 +637,9 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="6"/>
@@ -648,8 +648,9 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -658,8 +659,9 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -668,8 +670,9 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -678,8 +681,9 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -688,8 +692,9 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -698,8 +703,9 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -708,8 +714,9 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -718,8 +725,9 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="21"/>
@@ -728,8 +736,9 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="21"/>
@@ -738,8 +747,9 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="21"/>
@@ -748,8 +758,9 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -758,8 +769,9 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
@@ -768,8 +780,9 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -778,8 +791,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
@@ -788,8 +802,9 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="6"/>
@@ -798,8 +813,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
@@ -808,8 +824,9 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -817,9 +834,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -829,7 +846,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -839,7 +856,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -849,7 +866,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -859,7 +876,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
@@ -869,7 +886,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
@@ -879,7 +896,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
@@ -889,7 +906,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
@@ -899,7 +916,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
@@ -909,7 +926,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
@@ -919,7 +936,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -948,7 +965,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,43 +974,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
-        <v>15204010280000</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>29044300240000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>20112050360000</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>9331010550000</v>
-      </c>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>20112050360000</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://crs.cookcountyclerkil.gov/Search/ResultByPin?id1=15204010280000"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/Cook_county.xlsx
+++ b/Cook_county.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Order No</t>
   </si>
@@ -49,19 +49,40 @@
     <t>Second Name</t>
   </si>
   <si>
+    <t>6735 W Schreiber Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todd R Strother </t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL- 60631</t>
+  </si>
+  <si>
     <t>Cook</t>
   </si>
   <si>
-    <t>IL-60558</t>
-  </si>
-  <si>
-    <t>5412 Commonwealth Ave</t>
-  </si>
-  <si>
-    <t>Western Springs</t>
-  </si>
-  <si>
-    <t>Kathleen S Pipal</t>
+    <t>3087 N  Haussen Ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert L Jacob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-60618 </t>
+  </si>
+  <si>
+    <t>1915 Washington Ave</t>
+  </si>
+  <si>
+    <t>OBrien Mills</t>
+  </si>
+  <si>
+    <t>Wilmette</t>
+  </si>
+  <si>
+    <t>IL- 60091</t>
   </si>
 </sst>
 </file>
@@ -72,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="mm:ss.0;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,19 +119,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,12 +192,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,12 +207,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -218,37 +217,37 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,401 +557,425 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.36328125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" style="5" customWidth="1"/>
-    <col min="10" max="14" width="8.7265625" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="28" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" style="2" customWidth="1"/>
+    <col min="10" max="26" width="8.7265625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
-        <v>1163340</v>
+      <c r="A2" s="10">
+        <v>1174604</v>
       </c>
       <c r="B2"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="10">
+        <v>1192237</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="5">
+        <v>1170191</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="24"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="18"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="18"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="18"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="18"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,32 +985,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.36328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="60.36328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+    <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10">
+        <v>1192237</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1170191</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cook_county.xlsx
+++ b/Cook_county.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>Order No</t>
   </si>
@@ -49,6 +49,84 @@
     <t>Second Name</t>
   </si>
   <si>
+    <t>Start_time</t>
+  </si>
+  <si>
+    <t>End_time</t>
+  </si>
+  <si>
+    <t>18414 Locust St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacy L Slaughter </t>
+  </si>
+  <si>
+    <t>Lansing</t>
+  </si>
+  <si>
+    <t>IL-60438</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents Indexed Through: 05-05-2023 </t>
+  </si>
+  <si>
+    <t>CASIMIR M ZIARKO</t>
+  </si>
+  <si>
+    <t>5318 7th Ave</t>
+  </si>
+  <si>
+    <t>ESPERANZA M ZIARKO</t>
+  </si>
+  <si>
+    <t>Countryside</t>
+  </si>
+  <si>
+    <t>IL-60525</t>
+  </si>
+  <si>
+    <t>1915 Washington Ave</t>
+  </si>
+  <si>
+    <t>OBrien Mills</t>
+  </si>
+  <si>
+    <t>Wilmette</t>
+  </si>
+  <si>
+    <t>IL-60091</t>
+  </si>
+  <si>
+    <t>1367 Arthur St</t>
+  </si>
+  <si>
+    <t>Albert R Benney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calumet </t>
+  </si>
+  <si>
+    <t>IL-60409</t>
+  </si>
+  <si>
+    <t>1831 Warwick Ln</t>
+  </si>
+  <si>
+    <t>John R Nicholas</t>
+  </si>
+  <si>
+    <t>Schaumburg</t>
+  </si>
+  <si>
+    <t>IL-60193</t>
+  </si>
+  <si>
+    <t>CLAUDIA  NICHOLAS</t>
+  </si>
+  <si>
     <t>6735 W Schreiber Ave</t>
   </si>
   <si>
@@ -58,10 +136,94 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>IL- 60631</t>
-  </si>
-  <si>
-    <t>Cook</t>
+    <t>IL-60631</t>
+  </si>
+  <si>
+    <t>1107 N Wilke Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim R Palmer </t>
+  </si>
+  <si>
+    <t>Arlington Heights</t>
+  </si>
+  <si>
+    <t>IL-60004</t>
+  </si>
+  <si>
+    <t>MOIRA A ZALE</t>
+  </si>
+  <si>
+    <t>3087 N Haussen Ct</t>
+  </si>
+  <si>
+    <t>Robert L Jacob</t>
+  </si>
+  <si>
+    <t>IL-60618</t>
+  </si>
+  <si>
+    <t>20061 Marlin Ct</t>
+  </si>
+  <si>
+    <t>Tajuna Copeland</t>
+  </si>
+  <si>
+    <t>Lynwood</t>
+  </si>
+  <si>
+    <t>IL-60411</t>
+  </si>
+  <si>
+    <t>624 Albion Ln</t>
+  </si>
+  <si>
+    <t>Mary J Deguide</t>
+  </si>
+  <si>
+    <t>Mount Prospect</t>
+  </si>
+  <si>
+    <t>IL-60056</t>
+  </si>
+  <si>
+    <t>831 S HIGHLAND AVE</t>
+  </si>
+  <si>
+    <t>VICTORIA SERRITELLA</t>
+  </si>
+  <si>
+    <t>ARLINGTON HEIGHTS</t>
+  </si>
+  <si>
+    <t>IL-60005</t>
+  </si>
+  <si>
+    <t>508 E Wilson St</t>
+  </si>
+  <si>
+    <t>Angela Biancala</t>
+  </si>
+  <si>
+    <t>Palatine</t>
+  </si>
+  <si>
+    <t>IL-60074</t>
+  </si>
+  <si>
+    <t>MICHAEL  BIANCALA</t>
+  </si>
+  <si>
+    <t>12601 Brighton Dr</t>
+  </si>
+  <si>
+    <t>Kelly Lee Braun</t>
+  </si>
+  <si>
+    <t>Lemont</t>
+  </si>
+  <si>
+    <t>IL-60439</t>
   </si>
   <si>
     <t>3087 N  Haussen Ct</t>
@@ -71,15 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">IL-60618 </t>
-  </si>
-  <si>
-    <t>1915 Washington Ave</t>
-  </si>
-  <si>
-    <t>OBrien Mills</t>
-  </si>
-  <si>
-    <t>Wilmette</t>
   </si>
   <si>
     <t>IL- 60091</t>
@@ -93,7 +246,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="mm:ss.0;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +283,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,13 +357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -207,48 +369,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,427 +713,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" style="2" customWidth="1"/>
-    <col min="10" max="26" width="8.7265625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="28" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.6328125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="24.1796875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.6328125" style="8" customWidth="1"/>
+    <col min="12" max="39" width="8.7265625" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>1171809</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="17">
+        <v>45068.499992418983</v>
+      </c>
+      <c r="K2" s="17">
+        <v>45068.503837199067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1170191</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="J3" s="23">
+        <v>45068.514130185184</v>
+      </c>
+      <c r="K3" s="23">
+        <v>45068.517414363429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>1166519</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="J4" s="23">
+        <v>45068.51741453704</v>
+      </c>
+      <c r="K4" s="23">
+        <v>45068.520612986111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>1173214</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="23">
+        <v>45068.52061334491</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>1174604</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="B6" s="24"/>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="J6" s="23">
+        <v>45068.524513483797</v>
+      </c>
+      <c r="K6" s="23">
+        <v>45068.528019351848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>1192237</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="H7" s="13"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1189333</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>1180407</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>1178768</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="24">
+        <v>1136440</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="24">
+        <v>1139295</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="24">
+        <v>1142347</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>1170191</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="J13" s="23">
+        <v>45068.503837384262</v>
+      </c>
+      <c r="K13" s="23">
+        <v>45068.514130000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="24">
+        <v>1163573</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="23">
+        <v>45068.52801952546</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="13"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="13"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="13"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="13"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="13"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="13"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="13"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="13"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="13"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="13"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="13"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="13"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="13"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="13"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="13"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="13"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="13"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -993,61 +1407,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.36328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="60.36328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10">
+      <c r="A1" s="5">
         <v>1192237</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1170191</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="15"/>
+      <c r="C2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="15"/>
+      <c r="A3" s="5"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>

--- a/Cook_county.xlsx
+++ b/Cook_county.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Title_Files\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankita.agarwal\Documents\titleSearchAutomation\Netrofile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Order No</t>
   </si>
@@ -98,18 +98,6 @@
   </si>
   <si>
     <t>IL-60091</t>
-  </si>
-  <si>
-    <t>1367 Arthur St</t>
-  </si>
-  <si>
-    <t>Albert R Benney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calumet </t>
-  </si>
-  <si>
-    <t>IL-60409</t>
   </si>
   <si>
     <t>1831 Warwick Ln</t>
@@ -713,30 +701,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="27" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" style="8" customWidth="1"/>
     <col min="8" max="8" width="33" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="24.6328125" style="8" customWidth="1"/>
-    <col min="12" max="39" width="8.7265625" style="8" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="8"/>
+    <col min="9" max="9" width="19.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="8" customWidth="1"/>
+    <col min="12" max="39" width="8.7109375" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -771,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1171809</v>
       </c>
@@ -804,7 +792,7 @@
         <v>45068.503837199067</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1170191</v>
       </c>
@@ -832,9 +820,9 @@
         <v>45068.517414363429</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>1166519</v>
+        <v>1173214</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
@@ -853,83 +841,79 @@
         <v>15</v>
       </c>
       <c r="H4" s="13"/>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="23">
-        <v>45068.51741453704</v>
-      </c>
-      <c r="K4" s="23">
-        <v>45068.520612986111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45068.52061334491</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>1173214</v>
+        <v>1174604</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="J5" s="23">
-        <v>45068.52061334491</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45068.524513483797</v>
+      </c>
+      <c r="K5" s="23">
+        <v>45068.528019351848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>1174604</v>
+        <v>1192237</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="J6" s="23">
-        <v>45068.524513483797</v>
-      </c>
-      <c r="K6" s="23">
-        <v>45068.528019351848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>1192237</v>
+        <v>1189333</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>46</v>
@@ -941,9 +925,9 @@
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>1189333</v>
+        <v>1180407</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="9" t="s">
@@ -965,9 +949,9 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>1180407</v>
+        <v>1178768</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="9" t="s">
@@ -989,9 +973,9 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>1178768</v>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>1136440</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="9" t="s">
@@ -1010,77 +994,83 @@
         <v>15</v>
       </c>
       <c r="H10" s="13"/>
+      <c r="I10" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
-        <v>1136440</v>
+        <v>1139295</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="D11" s="23" t="s">
+        <v>61</v>
+      </c>
       <c r="E11" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="23"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
-        <v>1139295</v>
+        <v>1142347</v>
       </c>
       <c r="B12" s="24"/>
-      <c r="C12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>65</v>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="23">
+        <v>45068.503837384262</v>
+      </c>
+      <c r="K12" s="23">
+        <v>45068.514130000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
-        <v>1142347</v>
-      </c>
-      <c r="B13" s="24"/>
+        <v>1163573</v>
+      </c>
+      <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>15</v>
@@ -1088,58 +1078,40 @@
       <c r="H13" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="I13" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="J13" s="23">
-        <v>45068.503837384262</v>
-      </c>
-      <c r="K13" s="23">
-        <v>45068.514130000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="24">
-        <v>1163573</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="23">
         <v>45068.52801952546</v>
       </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1148,10 +1120,10 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="13"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1160,10 +1132,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="13"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1175,7 +1147,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1184,12 +1156,12 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="13"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1197,35 +1169,36 @@
       <c r="G20" s="9"/>
       <c r="H20" s="13"/>
       <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="13"/>
-      <c r="J21" s="23"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="9"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="15"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="13"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -1237,20 +1210,19 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1262,7 +1234,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1271,10 +1243,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="13"/>
-      <c r="J26" s="17"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1286,7 +1258,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1298,7 +1270,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1310,9 +1282,9 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1322,19 +1294,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="14"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="13"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1345,7 +1316,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1356,8 +1327,9 @@
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1367,7 +1339,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1377,19 +1349,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="13"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="13"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="9"/>
+      <c r="K35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1405,26 +1365,26 @@
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.36328125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>1192237</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -1432,7 +1392,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1170191</v>
       </c>
@@ -1447,14 +1407,14 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
@@ -1463,10 +1423,10 @@
       <c r="G3" s="3"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
